--- a/biology/Botanique/Topaz_(pomme)/Topaz_(pomme).xlsx
+++ b/biology/Botanique/Topaz_(pomme)/Topaz_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Topaz est un cultivar de pommier domestique créé dans les années 1990 en Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Forme : légèrement aplatie
 Épicarpe : rouge
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Topaz a été diffusée en 1993 par la station expérimentale tchèque de Strížovice.
 </t>
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est le fruit du croisement de Rubin (Golden Delicious × Lord Lambourne) et de Vanda (Jolana × Lord Lambourne).
 Mutant(s)
@@ -607,11 +625,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde, bon pollinisateur.
 Groupe de floraison: B.
-S-génotype: S2S5[1].
+S-génotype: S2S5.
 Fécondation:
 Compatibles et semi-compatibles: Reglindis, Teser, Florina, Rubinola, Alkmène, Nela.
 Incompatible: Gala.</t>
@@ -642,7 +662,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété génétiquement résistante aux races communes de tavelure (gène Vf). Pour cette raison elle est appropriée aux petits jardins familiaux où les traitements phytosanitaires sont rares. Elle est aussi souvent plantée en agriculture biologique.
 Topaz pose toutefois des problèmes de pucerons cendrés en absence de traitement par l'huile de neem. La variété est peu sensible à l'oïdium et moyennement sensible à la maladie des taches de suie, au gloeosporium orbiculare, à l’hoplocampe du pommier et au carpocapse.
@@ -674,7 +696,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est moyennement vigoureux à faible avec des entrenœuds courts, mais il est bien garni et sa mise à fruit est rapide. La variété supporte bien le gel tardif et a une tendance moyenne à l'alternance. Elle est mature vers le 15 octobre et se conserve bien en frigo jusque fin mars.
 </t>
